--- a/inst/extdata/mdma-example/mdma-example-fullCriteriaDf.xlsx
+++ b/inst/extdata/mdma-example/mdma-example-fullCriteriaDf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\dmcda\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Data\R\mdmcda\inst\extdata\mdma-example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7E163-0FDC-4A1E-93D8-1D4205E215DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD054DE-0655-44CA-9699-E3D3F87B821E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{2E47099A-D45E-4914-93FE-269E72082B6E}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>lo_score</t>
   </si>
   <si>
@@ -65,12 +53,6 @@
     <t>hi_label</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>parentCriterion</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -164,7 +146,19 @@
     <t>Crime to be able to fund substance use.</t>
   </si>
   <si>
-    <t>isLeaf</t>
+    <t>criterion_id</t>
+  </si>
+  <si>
+    <t>criterion_label</t>
+  </si>
+  <si>
+    <t>criterion_description</t>
+  </si>
+  <si>
+    <t>parentCriterion_id</t>
+  </si>
+  <si>
+    <t>leafCriterion</t>
   </si>
 </sst>
 </file>
@@ -544,7 +538,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,34 +554,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>41</v>
@@ -595,34 +589,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -630,34 +624,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -665,34 +659,34 @@
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>-100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -700,34 +694,34 @@
     </row>
     <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>-100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1">
         <v>100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -735,34 +729,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -770,34 +764,34 @@
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>-100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -805,34 +799,34 @@
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>-100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -840,34 +834,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -875,34 +869,34 @@
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>-100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -910,34 +904,34 @@
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>-100</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
         <v>100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
